--- a/custom_band_table.xlsx
+++ b/custom_band_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcaratti/Desenvolvimento/eu/Arduino/DSP/Si4825_RADIO_HACK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA6222C-B550-294A-99CC-09536C233730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64818A4-10A7-4045-92D0-3487E360A986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26540" windowHeight="17840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32640" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_banda" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t xml:space="preserve"> Band Name  </t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve"> Channel Space </t>
   </si>
   <si>
-    <t xml:space="preserve"> AR(K) </t>
-  </si>
-  <si>
     <t xml:space="preserve">            </t>
   </si>
   <si>
@@ -291,13 +288,73 @@
   </si>
   <si>
     <t>Step/Offset (K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accumulated Value(K) </t>
+  </si>
+  <si>
+    <t>Band Allocation Plan for a 12-Position Band Selector (12 Bands - One FM Band, One AM Band, and Ten Shortwave Bands) for the Si4825.</t>
+  </si>
+  <si>
+    <t>Development of a band allocation plan for a 12-position selector, designed to control a receiver based on the Si4825. The plan segments the spectrum into 12 bands, covering one FM band, one AM band, and ten Shortwave (SW) bands. The band definition aims to optimize signal reception, ensuring comprehensive coverage of radio frequency ranges, with a focus on minimizing interference and maximizing the device's selectivity.</t>
+  </si>
+  <si>
+    <t>Narrow (SW)</t>
+  </si>
+  <si>
+    <t>Wide (SW)</t>
+  </si>
+  <si>
+    <t>2.3-10.0 MHz</t>
+  </si>
+  <si>
+    <t>3.7-12.5 MHz</t>
+  </si>
+  <si>
+    <t>5.9-9.50 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9-18.0 MHz </t>
+  </si>
+  <si>
+    <t>7.0-16.0 MHz</t>
+  </si>
+  <si>
+    <t>9.0-16.0 MHz</t>
+  </si>
+  <si>
+    <t>9.0-22.0 MHz</t>
+  </si>
+  <si>
+    <t>9.5-18.0 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0-22.0 MHz </t>
+  </si>
+  <si>
+    <t>18.0-28.5 MHz</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Refer to the table for the lower and upper frequency limit options in the Narrow and Wide Band configurations. This option can be selected through pin 1 (LNA_EN) of the Si4825.</t>
+  </si>
+  <si>
+    <t>See:  BROADCAST MECHANICAL TUNING AM/FM/SW RADIO RECEIVER (Si4825-A10)  and  SKYWORKS -  Si4825 DEMO BOARD USER'S GUIDE (Si4825-DEMO)</t>
+  </si>
+  <si>
+    <t>Aditional Resistor (K)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -320,6 +377,30 @@
       <b/>
       <sz val="12"/>
       <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -362,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -385,11 +466,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -398,6 +578,58 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,9 +649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +689,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -563,7 +795,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -705,7 +937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -713,892 +945,1245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A52" sqref="A52:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="H3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1">
-        <f>E3-E2</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F43" si="0">E4-E3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="G5" s="1"/>
+      <c r="H5" s="13">
         <v>67</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>77</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1">
+        <f>F6-F5</f>
+        <v>47</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>87</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>97</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G46" si="0">F7-F6</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>67</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="13">
+        <f>F26-F8</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>117</v>
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>127</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>137</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>147</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>157</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>167</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>187</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <v>197</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>207</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1">
-        <v>217</v>
+        <v>28</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1">
-        <v>227</v>
+        <v>28</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="1">
-        <v>237</v>
+        <v>31</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="3">
-        <v>247</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>217</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1">
-        <v>257</v>
+        <v>34</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1">
-        <v>267</v>
+        <v>37</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="4">
-        <v>277</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="3">
+        <v>247</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="1">
-        <v>287</v>
+        <v>42</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H27" s="13">
+        <f>F29-F26</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1">
+        <v>267</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="1">
-        <v>297</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="4">
-        <v>307</v>
+        <v>90</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="1">
-        <v>317</v>
+        <v>50</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H30" s="13">
+        <f>F32-F29</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1">
+        <v>297</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4">
+        <v>307</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="1">
+        <v>317</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H33" s="13">
+        <f>F36-F32</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="1">
+        <v>327</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="1">
+        <v>337</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="5">
+        <v>347</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>6</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="5">
+        <v>357</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H37" s="8">
+        <f>F37-F36</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="5">
+        <v>367</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H38" s="8">
+        <f>F38-F37</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="1">
+        <v>377</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H39" s="13">
+        <f>F40-F38</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>8</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="5">
+        <v>387</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="5">
+        <v>397</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H41" s="8">
+        <f>F41-F40</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="5">
+        <v>407</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H42" s="8">
+        <f>F42-F41</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="1">
+        <v>417</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H43" s="13">
+        <f>F44-F42</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="5">
+        <v>427</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="1">
+        <v>437</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H45" s="13">
+        <f>F46-F44</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <v>12</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="5">
+        <v>447</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
         <v>53</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="1">
-        <v>327</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="1">
-        <v>337</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="5">
-        <v>347</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
-        <v>6</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="5">
-        <v>357</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
-        <v>7</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="5">
-        <v>367</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1">
-        <v>377</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
-        <v>8</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="5">
-        <v>387</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
-        <v>9</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="5">
-        <v>397</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="5">
-        <v>10</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="5">
-        <v>407</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="1">
-        <v>417</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
-        <v>11</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="5">
-        <v>427</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="1">
-        <v>437</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="5">
-        <v>447</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="H47" s="8">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="9">
         <v>500</v>
       </c>
-      <c r="F45" s="1">
-        <f>SUM(F3:F44)</f>
+      <c r="G48" s="9">
+        <f>SUM(G6:G47)</f>
         <v>500</v>
       </c>
+      <c r="H48" s="10">
+        <f>SUM(H5:H47)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+    </row>
+    <row r="66" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A52:H57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H9:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A60:H63"/>
+    <mergeCell ref="A66:H69"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A47:E48"/>
+  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/custom_band_table.xlsx
+++ b/custom_band_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcaratti/Desenvolvimento/eu/Arduino/DSP/Si4825_RADIO_HACK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64818A4-10A7-4045-92D0-3487E360A986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E343A-E0E1-D140-BE74-B9B203821767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32640" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="760" windowWidth="32640" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_banda" sheetId="1" r:id="rId1"/>
@@ -595,8 +595,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,21 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:H57"/>
     </sheetView>
   </sheetViews>
@@ -964,26 +964,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -992,10 +992,10 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="13">
+      <c r="H5" s="17">
         <v>67</v>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
         <f>F6-F5</f>
         <v>47</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1083,7 +1083,7 @@
         <f t="shared" ref="G7:G46" si="0">F7-F6</f>
         <v>10</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1108,7 +1108,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1129,7 +1129,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="17">
         <f>F26-F8</f>
         <v>180</v>
       </c>
@@ -1153,7 +1153,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1174,7 +1174,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1195,7 +1195,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1216,7 +1216,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1237,7 +1237,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -1258,7 +1258,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1279,7 +1279,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -1300,7 +1300,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -1321,7 +1321,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
@@ -1342,7 +1342,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
@@ -1363,7 +1363,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -1384,7 +1384,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1405,7 +1405,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
@@ -1426,7 +1426,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
@@ -1447,7 +1447,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
@@ -1468,7 +1468,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
@@ -1493,7 +1493,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
@@ -1514,7 +1514,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="17">
         <f>F29-F26</f>
         <v>30</v>
       </c>
@@ -1538,7 +1538,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
@@ -1563,7 +1563,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
@@ -1584,7 +1584,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="17">
         <f>F32-F29</f>
         <v>30</v>
       </c>
@@ -1608,7 +1608,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
@@ -1633,7 +1633,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -1654,7 +1654,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="17">
         <f>F36-F32</f>
         <v>40</v>
       </c>
@@ -1678,7 +1678,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
@@ -1699,7 +1699,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
@@ -1724,7 +1724,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
@@ -1801,7 +1801,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="17">
         <f>F40-F38</f>
         <v>20</v>
       </c>
@@ -1829,7 +1829,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
@@ -1906,7 +1906,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="17">
         <f>F44-F42</f>
         <v>20</v>
       </c>
@@ -1934,7 +1934,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
@@ -1955,7 +1955,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="17">
         <f>F46-F44</f>
         <v>20</v>
       </c>
@@ -1983,16 +1983,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="1">
         <v>0</v>
       </c>
@@ -2004,11 +2004,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="9">
         <v>500</v>
       </c>
@@ -2022,153 +2022,158 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="66" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A60:H63"/>
+    <mergeCell ref="A66:H69"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A47:E48"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A52:H57"/>
     <mergeCell ref="C3:D3"/>
@@ -2178,11 +2183,6 @@
     <mergeCell ref="H30:H32"/>
     <mergeCell ref="H33:H36"/>
     <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A60:H63"/>
-    <mergeCell ref="A66:H69"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A47:E48"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/custom_band_table.xlsx
+++ b/custom_band_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcaratti/Desenvolvimento/eu/Arduino/DSP/Si4825_RADIO_HACK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E343A-E0E1-D140-BE74-B9B203821767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D035D404-335A-D94D-B70D-DF02679888E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="760" windowWidth="32640" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="2840" windowWidth="32640" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_banda" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -565,11 +565,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -595,23 +621,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,6 +649,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:H57"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -964,26 +1002,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -992,10 +1030,10 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>67</v>
       </c>
     </row>
@@ -1062,7 +1100,7 @@
         <f>F6-F5</f>
         <v>47</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1083,7 +1121,7 @@
         <f t="shared" ref="G7:G46" si="0">F7-F6</f>
         <v>10</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1108,7 +1146,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1129,9 +1167,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H9" s="17">
-        <f>F26-F8</f>
-        <v>180</v>
+      <c r="H9" s="26">
+        <f>F28-F8</f>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1153,7 +1191,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1174,7 +1212,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1195,7 +1233,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1216,7 +1254,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1237,7 +1275,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -1258,7 +1296,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1279,7 +1317,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -1300,7 +1338,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -1321,7 +1359,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
@@ -1342,7 +1380,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
@@ -1363,7 +1401,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -1384,7 +1422,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1405,7 +1443,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
@@ -1426,7 +1464,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
@@ -1447,7 +1485,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
@@ -1468,32 +1506,32 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>247</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="17"/>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
@@ -1514,31 +1552,28 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H27" s="17">
-        <f>F29-F26</f>
-        <v>30</v>
-      </c>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>267</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H28" s="17"/>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
@@ -1563,7 +1598,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H29" s="17"/>
+      <c r="H29" s="13">
+        <f>F29-F28</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
@@ -1584,7 +1622,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <f>F32-F29</f>
         <v>30</v>
       </c>
@@ -1608,7 +1646,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H31" s="17"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
@@ -1633,7 +1671,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -1654,7 +1692,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <f>F36-F32</f>
         <v>40</v>
       </c>
@@ -1678,7 +1716,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
@@ -1699,7 +1737,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
@@ -1724,7 +1762,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H36" s="17"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
@@ -1801,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <f>F40-F38</f>
         <v>20</v>
       </c>
@@ -1829,7 +1867,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H40" s="17"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
@@ -1906,7 +1944,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="16">
         <f>F44-F42</f>
         <v>20</v>
       </c>
@@ -1934,7 +1972,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
@@ -1955,7 +1993,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="16">
         <f>F46-F44</f>
         <v>20</v>
       </c>
@@ -1983,16 +2021,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H46" s="17"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="1">
         <v>0</v>
       </c>
@@ -2004,11 +2042,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="9">
         <v>500</v>
       </c>
@@ -2126,63 +2164,62 @@
       <c r="H63" s="14"/>
     </row>
     <row r="66" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A52:H57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H9:H28"/>
     <mergeCell ref="A60:H63"/>
     <mergeCell ref="A66:H69"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="A47:E48"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A52:H57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H9:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H39:H40"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/custom_band_table.xlsx
+++ b/custom_band_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcaratti/Desenvolvimento/eu/Arduino/DSP/Si4825_RADIO_HACK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D035D404-335A-D94D-B70D-DF02679888E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A576C-459C-014E-BCD8-5A9F630E2D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2840" windowWidth="32640" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1840" windowWidth="32640" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_banda" sheetId="1" r:id="rId1"/>
@@ -624,14 +624,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,24 +667,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,16 +985,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
@@ -1002,26 +1002,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1030,10 +1030,10 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="16">
+      <c r="H5" s="18">
         <v>67</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <f>F6-F5</f>
         <v>47</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1121,7 +1121,7 @@
         <f t="shared" ref="G7:G46" si="0">F7-F6</f>
         <v>10</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1146,7 +1146,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1167,7 +1167,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="19">
         <f>F28-F8</f>
         <v>200</v>
       </c>
@@ -1191,7 +1191,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1212,7 +1212,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1233,7 +1233,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1254,7 +1254,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1275,7 +1275,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -1296,7 +1296,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1317,7 +1317,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -1338,7 +1338,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -1359,7 +1359,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
@@ -1380,7 +1380,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
@@ -1401,7 +1401,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -1422,7 +1422,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1443,7 +1443,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
@@ -1464,7 +1464,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
@@ -1485,7 +1485,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
@@ -1506,7 +1506,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -1531,7 +1531,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H26" s="27"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
@@ -1552,7 +1552,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H27" s="27"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -1573,7 +1573,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H28" s="28"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
@@ -1622,7 +1622,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="18">
         <f>F32-F29</f>
         <v>30</v>
       </c>
@@ -1646,7 +1646,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
@@ -1671,7 +1671,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -1692,7 +1692,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="18">
         <f>F36-F32</f>
         <v>40</v>
       </c>
@@ -1716,7 +1716,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
@@ -1737,7 +1737,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
@@ -1762,7 +1762,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
@@ -1839,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="18">
         <f>F40-F38</f>
         <v>20</v>
       </c>
@@ -1867,7 +1867,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
@@ -1944,7 +1944,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="18">
         <f>F44-F42</f>
         <v>20</v>
       </c>
@@ -1972,7 +1972,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H44" s="16"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
@@ -1993,7 +1993,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="18">
         <f>F46-F44</f>
         <v>20</v>
       </c>
@@ -2021,16 +2021,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H46" s="16"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="1">
         <v>0</v>
       </c>
@@ -2042,11 +2042,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="9">
         <v>500</v>
       </c>
@@ -2060,153 +2060,158 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
     </row>
     <row r="66" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A60:H63"/>
+    <mergeCell ref="A66:H69"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A47:E48"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A52:H57"/>
     <mergeCell ref="C3:D3"/>
@@ -2215,11 +2220,6 @@
     <mergeCell ref="H33:H36"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H9:H28"/>
-    <mergeCell ref="A60:H63"/>
-    <mergeCell ref="A66:H69"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A47:E48"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/custom_band_table.xlsx
+++ b/custom_band_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcaratti/Desenvolvimento/eu/Arduino/DSP/Si4825_RADIO_HACK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A576C-459C-014E-BCD8-5A9F630E2D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F70AA-DE75-5446-A11A-4466AEF1F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1840" windowWidth="32640" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,15 +287,9 @@
     <t>Band Number</t>
   </si>
   <si>
-    <t>Step/Offset (K)</t>
-  </si>
-  <si>
     <t xml:space="preserve">            TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accumulated Value(K) </t>
-  </si>
-  <si>
     <t>Band Allocation Plan for a 12-Position Band Selector (12 Bands - One FM Band, One AM Band, and Ten Shortwave Bands) for the Si4825.</t>
   </si>
   <si>
@@ -347,7 +341,13 @@
     <t>See:  BROADCAST MECHANICAL TUNING AM/FM/SW RADIO RECEIVER (Si4825-A10)  and  SKYWORKS -  Si4825 DEMO BOARD USER'S GUIDE (Si4825-DEMO)</t>
   </si>
   <si>
-    <t>Aditional Resistor (K)</t>
+    <t xml:space="preserve"> Accumulated Value(kΩ) </t>
+  </si>
+  <si>
+    <t>Aditional Resistor (kΩ)</t>
+  </si>
+  <si>
+    <t>Step/Offset (kΩ)</t>
   </si>
 </sst>
 </file>
@@ -624,32 +624,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,6 +649,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1002,26 +1002,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="A1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1030,31 +1030,31 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>67</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <f>F6-F5</f>
         <v>47</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1121,7 +1121,7 @@
         <f t="shared" ref="G7:G46" si="0">F7-F6</f>
         <v>10</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -1146,7 +1146,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1167,7 +1167,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="26">
         <f>F28-F8</f>
         <v>200</v>
       </c>
@@ -1191,7 +1191,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1212,7 +1212,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1233,7 +1233,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1254,7 +1254,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1275,7 +1275,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -1296,7 +1296,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1317,7 +1317,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -1338,7 +1338,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -1359,7 +1359,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
@@ -1380,7 +1380,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
@@ -1401,7 +1401,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -1422,7 +1422,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1443,7 +1443,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
@@ -1464,7 +1464,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
@@ -1485,7 +1485,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
@@ -1506,12 +1506,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
@@ -1519,7 +1517,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>38</v>
@@ -1531,7 +1529,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
@@ -1552,10 +1550,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1573,7 +1573,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
@@ -1586,7 +1586,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>46</v>
@@ -1622,7 +1622,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="16">
         <f>F32-F29</f>
         <v>30</v>
       </c>
@@ -1646,7 +1646,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
@@ -1659,7 +1659,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>46</v>
@@ -1671,7 +1671,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -1692,7 +1692,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <f>F36-F32</f>
         <v>40</v>
       </c>
@@ -1716,7 +1716,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
@@ -1737,7 +1737,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
@@ -1750,7 +1750,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>46</v>
@@ -1762,7 +1762,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
@@ -1775,7 +1775,7 @@
         <v>63</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>46</v>
@@ -1803,7 +1803,7 @@
         <v>65</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>46</v>
@@ -1839,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="16">
         <f>F40-F38</f>
         <v>20</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>69</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>46</v>
@@ -1867,7 +1867,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
@@ -1880,7 +1880,7 @@
         <v>71</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>46</v>
@@ -1908,7 +1908,7 @@
         <v>73</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>46</v>
@@ -1944,7 +1944,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="16">
         <f>F44-F42</f>
         <v>20</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>77</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>46</v>
@@ -1972,7 +1972,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
@@ -1993,7 +1993,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="16">
         <f>F46-F44</f>
         <v>20</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>81</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>46</v>
@@ -2021,16 +2021,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="1">
         <v>0</v>
       </c>
@@ -2042,11 +2042,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="9">
         <v>500</v>
       </c>
@@ -2060,158 +2060,153 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="A52" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
+      <c r="A60" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="66" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
+      <c r="A66" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A60:H63"/>
-    <mergeCell ref="A66:H69"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A47:E48"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A52:H57"/>
     <mergeCell ref="C3:D3"/>
@@ -2220,6 +2215,11 @@
     <mergeCell ref="H33:H36"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H9:H28"/>
+    <mergeCell ref="A60:H63"/>
+    <mergeCell ref="A66:H69"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A47:E48"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
